--- a/output/UNIMAR IKITELLI.xlsx
+++ b/output/UNIMAR IKITELLI.xlsx
@@ -1306,7 +1306,7 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <v>927.5700000000001</v>
+        <v>929.6799999999999</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1329,7 +1329,7 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>838.24</v>
+        <v>840.15</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -1352,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <v>746.96</v>
+        <v>748.76</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
